--- a/background/ftpdir/气候室/2018/01/201801.xlsx
+++ b/background/ftpdir/气候室/2018/01/201801.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03协同开发\九楼值班显示平台\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git仓库\RegistrationSystem\background\ftpdir\气候室\2018\01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,13 +265,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,11 +586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,10 +599,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -622,7 +622,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -644,7 +644,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>43071</v>
+        <v>43102</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>43072</v>
+        <v>43103</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>43073</v>
+        <v>43104</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>43074</v>
+        <v>43105</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>43075</v>
+        <v>43106</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>43076</v>
+        <v>43107</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>43077</v>
+        <v>43108</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>43078</v>
+        <v>43109</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>43079</v>
+        <v>43110</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>43080</v>
+        <v>43111</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>19</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>43081</v>
+        <v>43112</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>43082</v>
+        <v>43113</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>19</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>43083</v>
+        <v>43114</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>43084</v>
+        <v>43115</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>43085</v>
+        <v>43116</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>43086</v>
+        <v>43117</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>43087</v>
+        <v>43118</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>21</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>43088</v>
+        <v>43119</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>43089</v>
+        <v>43120</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>43090</v>
+        <v>43121</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>21</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>43091</v>
+        <v>43122</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>43092</v>
+        <v>43123</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>21</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>43093</v>
+        <v>43124</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>21</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>43094</v>
+        <v>43125</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>24</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>43095</v>
+        <v>43126</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>24</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>43096</v>
+        <v>43127</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>24</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>43097</v>
+        <v>43128</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>24</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>43098</v>
+        <v>43129</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>24</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>43099</v>
+        <v>43130</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>24</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>24</v>
